--- a/1 Сортировки/Время.xlsx
+++ b/1 Сортировки/Время.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Dmitry\Desktop\ПОЛИТЕХ\Алгоритмическое программирование(Python)\1 Сортировки\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Dmitry\Desktop\политех\алгоритмическое программирование(Python)\1 Сортировки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D18EAEB-7093-4416-98B5-C218B2701803}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14599D06-EF69-4685-8D32-452149AE88B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{10FA6941-5858-41E7-8E07-619A2A1F21F3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Пузырьком</t>
   </si>
@@ -76,6 +76,27 @@
   </si>
   <si>
     <t>1218.543571 s</t>
+  </si>
+  <si>
+    <t>Быстрая</t>
+  </si>
+  <si>
+    <t>0.001995 s</t>
+  </si>
+  <si>
+    <t>0.008975 s</t>
+  </si>
+  <si>
+    <t>0.094750 s</t>
+  </si>
+  <si>
+    <t>0.971729 s</t>
+  </si>
+  <si>
+    <t>9.824521 s</t>
+  </si>
+  <si>
+    <t>98.901093 s</t>
   </si>
 </sst>
 </file>
@@ -121,7 +142,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -144,14 +165,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -466,19 +502,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF8371E5-9193-4E12-98FD-28C6E8F0E62E}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="4" width="13.77734375" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -486,11 +523,14 @@
       <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>10</v>
       </c>
@@ -500,12 +540,16 @@
       <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
+        <f>A2*10</f>
         <v>100</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -514,12 +558,16 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
+        <f t="shared" ref="A4:A8" si="0">A3*10</f>
         <v>1000</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -528,12 +576,16 @@
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -542,12 +594,16 @@
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
+        <f t="shared" si="0"/>
         <v>100000</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -556,8 +612,35 @@
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="4" t="s">
         <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/1 Сортировки/Время.xlsx
+++ b/1 Сортировки/Время.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Dmitry\Desktop\политех\алгоритмическое программирование(Python)\1 Сортировки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14599D06-EF69-4685-8D32-452149AE88B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B277671A-B83D-41AF-9355-0AA7AB6480B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{10FA6941-5858-41E7-8E07-619A2A1F21F3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Пузырьком</t>
   </si>
@@ -97,6 +97,27 @@
   </si>
   <si>
     <t>98.901093 s</t>
+  </si>
+  <si>
+    <t>Слиянием</t>
+  </si>
+  <si>
+    <t>0.001002 s</t>
+  </si>
+  <si>
+    <t>0.008998 s</t>
+  </si>
+  <si>
+    <t>14.796409 s</t>
+  </si>
+  <si>
+    <t>0.108031 s</t>
+  </si>
+  <si>
+    <t>1.206223 s</t>
+  </si>
+  <si>
+    <t>177.437518 s</t>
   </si>
 </sst>
 </file>
@@ -142,7 +163,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -178,16 +199,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -502,20 +535,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF8371E5-9193-4E12-98FD-28C6E8F0E62E}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="4" width="13.77734375" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -529,8 +563,11 @@
       <c r="E1" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F1" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>10</v>
       </c>
@@ -546,8 +583,11 @@
       <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <f>A2*10</f>
         <v>100</v>
@@ -564,8 +604,11 @@
       <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A8" si="0">A3*10</f>
         <v>1000</v>
@@ -582,8 +625,11 @@
       <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -600,8 +646,11 @@
       <c r="E5" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>100000</v>
@@ -618,8 +667,11 @@
       <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="F6" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>1000000</v>
@@ -630,8 +682,11 @@
       <c r="E7" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>10000000</v>
@@ -641,6 +696,9 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/1 Сортировки/Время.xlsx
+++ b/1 Сортировки/Время.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Dmitry\Desktop\политех\алгоритмическое программирование(Python)\1 Сортировки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B277671A-B83D-41AF-9355-0AA7AB6480B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E58F595-0DCB-45C6-9C29-C6C60C8DBF3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{10FA6941-5858-41E7-8E07-619A2A1F21F3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Пузырьком</t>
   </si>
@@ -118,6 +118,27 @@
   </si>
   <si>
     <t>177.437518 s</t>
+  </si>
+  <si>
+    <t>Пирамидальная</t>
+  </si>
+  <si>
+    <t>0.000998 s</t>
+  </si>
+  <si>
+    <t>0.016971 s</t>
+  </si>
+  <si>
+    <t>0.244998 s</t>
+  </si>
+  <si>
+    <t>2.923793 s</t>
+  </si>
+  <si>
+    <t>36.005522 s</t>
+  </si>
+  <si>
+    <t>432.553768 s</t>
   </si>
 </sst>
 </file>
@@ -535,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF8371E5-9193-4E12-98FD-28C6E8F0E62E}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -547,9 +568,10 @@
     <col min="3" max="4" width="13.77734375" customWidth="1"/>
     <col min="5" max="5" width="12.88671875" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -566,8 +588,11 @@
       <c r="F1" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>10</v>
       </c>
@@ -586,8 +611,11 @@
       <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <f>A2*10</f>
         <v>100</v>
@@ -607,8 +635,11 @@
       <c r="F3" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A8" si="0">A3*10</f>
         <v>1000</v>
@@ -628,8 +659,11 @@
       <c r="F4" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -649,8 +683,11 @@
       <c r="F5" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>100000</v>
@@ -670,8 +707,11 @@
       <c r="F6" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>1000000</v>
@@ -685,8 +725,11 @@
       <c r="F7" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="G7" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>10000000</v>
@@ -699,6 +742,9 @@
       </c>
       <c r="F8" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
